--- a/_DOCS/COMPONENTS.xlsx
+++ b/_DOCS/COMPONENTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maclaren/Desktop/work/KXKM_Rpi_Teleco/_DOCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maclaren/Desktop/work/KXKM/RPi-Teleco/_DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A131501-69F3-1743-A193-46D59A2F4AFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3A7BF-8B0E-474F-9BEA-B1BBA2618A81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C124D86D-EABA-534F-8CD3-7A6DD8684264}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>https://fr.rs-online.com/web/p/expandeurs-e-s/0403806/</t>
   </si>
@@ -64,13 +64,25 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/10442</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/contacts-pour-connecteurs-ci/6812887/</t>
+  </si>
+  <si>
+    <t>à acheter</t>
+  </si>
+  <si>
+    <t>reçu</t>
+  </si>
+  <si>
+    <t>Contact de cosse à sertir HARWIN Femelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +117,20 @@
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -136,6 +162,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -451,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173F978-CC2C-7742-ADDD-1453F690C19B}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,8 +499,8 @@
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -483,8 +511,8 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="5"/>
     </row>
@@ -495,8 +523,8 @@
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -507,34 +535,50 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="5"/>
     </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -542,7 +586,8 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{E42A9E60-E835-DA4B-9BB3-C96984ADCEF1}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{6A5BDBA6-9038-ED41-B42B-DDBF398DFF73}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{9BD3BA82-5374-D24D-BF59-0301F842C986}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{C9943569-F9F3-7A40-8668-95EFBB2A6346}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{C9943569-F9F3-7A40-8668-95EFBB2A6346}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{96201BC8-4143-7C4C-8590-CBCADCC28738}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_DOCS/COMPONENTS.xlsx
+++ b/_DOCS/COMPONENTS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maclaren/Desktop/work/KXKM/RPi-Teleco/_DOCS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macosphere/Desktop/Git/RPi-Teleco/_DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8585C2-D97A-B647-AEE2-884C05AE4C57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="16680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -60,9 +62,6 @@
     <t>https://fr.rs-online.com/web/p/contacts-pour-connecteurs-ci/6812887/</t>
   </si>
   <si>
-    <t>à acheter</t>
-  </si>
-  <si>
     <t>Button Switch Tactile Led</t>
   </si>
   <si>
@@ -127,13 +126,16 @@
   </si>
   <si>
     <t>Dispo KXKM ?</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/transistors-bipolaires-bjt/7390385/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -249,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -267,6 +269,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -649,14 +652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AML29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="44.1640625" style="1" customWidth="1"/>
@@ -668,9 +671,9 @@
     <col min="8" max="1026" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="10"/>
@@ -680,7 +683,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="10"/>
@@ -688,12 +691,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1</v>
@@ -707,26 +710,26 @@
       <c r="G4" s="6"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="G5" s="6"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -743,7 +746,7 @@
       <c r="G6" s="6"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -760,7 +763,7 @@
       <c r="G7" s="6"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -777,7 +780,7 @@
       <c r="G8" s="6"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
@@ -788,14 +791,14 @@
       <c r="E9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="10"/>
@@ -803,11 +806,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="12"/>
@@ -817,62 +820,62 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="6"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
@@ -882,9 +885,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="10"/>
@@ -894,29 +897,29 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>0</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>0</v>
@@ -926,7 +929,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="10"/>
@@ -936,7 +939,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
@@ -946,58 +949,61 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D21" s="16"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:7">
-      <c r="D23" s="10"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{05CE6A8C-0319-0C43-8680-6FB13576AAF3}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{598240D6-C405-D440-AD6A-29928C93FD3F}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{C0B23A2C-27C9-F446-8A54-2E1BA20EE01E}"/>
-    <hyperlink ref="D17" r:id="rId10" xr:uid="{F857A688-86EC-D94B-8167-D6BF97C2DA58}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{5781B81F-7C7D-F840-8793-0005DF2C0C23}"/>
-    <hyperlink ref="D5" r:id="rId12" xr:uid="{026EA79E-3CA4-3143-AF33-5E2417B45A43}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="E12" r:id="rId9"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D18" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D23" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/_DOCS/COMPONENTS.xlsx
+++ b/_DOCS/COMPONENTS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -35,9 +35,6 @@
     <t>https://fr.rs-online.com/web/p/expandeurs-e-s/0403806/</t>
   </si>
   <si>
-    <t>reçu</t>
-  </si>
-  <si>
     <t>Bornier CI 2 contacts,</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>https://www.aliexpress.com/item/32825221825.html?spm=a2g0s.9042311.0.0.27424c4dQ2Zsr6</t>
   </si>
   <si>
-    <t>en transit</t>
-  </si>
-  <si>
     <t>Screen OLED 3.12’’</t>
   </si>
   <si>
@@ -119,23 +113,23 @@
     <t>Resistances 4.7k pour Pull_Up SPI</t>
   </si>
   <si>
-    <t>à essayer ? Trop petit ?</t>
-  </si>
-  <si>
     <t>https://fr.rs-online.com/web/p/expandeurs-e-s/9126833/</t>
   </si>
   <si>
-    <t>Dispo KXKM ?</t>
-  </si>
-  <si>
     <t>https://fr.rs-online.com/web/p/transistors-bipolaires-bjt/7390385/</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>Transistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -190,13 +184,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -261,13 +248,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -656,7 +642,7 @@
   <dimension ref="A2:AML29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,149 +658,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G4" s="6"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="6"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="6"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="6"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
@@ -822,55 +796,51 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G12" s="6"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
+      <c r="E14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" s="4"/>
@@ -878,20 +848,20 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
+      <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F16" s="6"/>
@@ -899,41 +869,39 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
@@ -942,52 +910,58 @@
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="16"/>
+      <c r="D21" s="15"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="11"/>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/_DOCS/COMPONENTS.xlsx
+++ b/_DOCS/COMPONENTS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34960" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -123,13 +123,25 @@
   </si>
   <si>
     <t>Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>inutile</t>
+  </si>
+  <si>
+    <t>too big for arduino micro memory</t>
+  </si>
+  <si>
+    <t>Remplacé par btn direct sur Rpi's GPIO --&gt; Reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -146,6 +158,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -153,14 +166,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,6 +220,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,24 +256,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -639,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AML29"/>
+  <dimension ref="A2:AML30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" zoomScalePageLayoutView="132" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,332 +685,348 @@
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
     <col min="8" max="1026" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="15"/>
+      <c r="E8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
-        <v>0</v>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="15"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7" t="s">
-        <v>30</v>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="D17" r:id="rId10"/>
-    <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D5" r:id="rId12"/>
-    <hyperlink ref="D23" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D18" r:id="rId7"/>
+    <hyperlink ref="D19" r:id="rId8"/>
+    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="D9" r:id="rId11"/>
+    <hyperlink ref="D11" r:id="rId12"/>
+    <hyperlink ref="D10" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
